--- a/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/BaoCaoLichHen_Export_Template.xlsx
+++ b/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/BaoCaoLichHen_Export_Template.xlsx
@@ -32,25 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>HoTen</t>
-  </si>
-  <si>
-    <t>NgaySinh</t>
-  </si>
-  <si>
-    <t>SoDienThoai</t>
-  </si>
-  <si>
-    <t>CanCuocCongDan</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>NgayBatDauLamViec</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tên khách hàng</t>
   </si>
@@ -250,29 +232,29 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -560,15 +542,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="26" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" style="16" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" style="2" customWidth="1"/>
@@ -576,35 +558,16 @@
     <col min="10" max="10" width="24" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="1:88" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:88" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:88" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.25">
@@ -644,25 +607,25 @@
     </row>
     <row r="4" spans="1:88" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="G4" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
@@ -750,8 +713,8 @@
       <c r="A5" s="20"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="17"/>
       <c r="G5" s="14"/>
       <c r="J5" s="7"/>
@@ -791,8 +754,8 @@
     <row r="6" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="19"/>
       <c r="G6" s="7"/>
       <c r="J6" s="7"/>
@@ -832,8 +795,8 @@
     <row r="7" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="19"/>
       <c r="G7" s="7"/>
       <c r="J7" s="7"/>
@@ -873,8 +836,8 @@
     <row r="8" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="19"/>
       <c r="G8" s="7"/>
       <c r="J8" s="7"/>
@@ -912,8 +875,8 @@
     <row r="9" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="29"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="19"/>
       <c r="G9" s="7"/>
       <c r="J9" s="7"/>
@@ -951,8 +914,8 @@
     <row r="10" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="29"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="19"/>
       <c r="G10" s="7"/>
       <c r="J10" s="7"/>
@@ -990,8 +953,8 @@
     <row r="11" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="29"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="19"/>
       <c r="G11" s="7"/>
       <c r="J11" s="7"/>
@@ -1029,8 +992,8 @@
     <row r="12" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="29"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="19"/>
       <c r="G12" s="7"/>
       <c r="J12" s="7"/>
@@ -1068,8 +1031,8 @@
     <row r="13" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="29"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="19"/>
       <c r="G13" s="7"/>
       <c r="J13" s="7"/>
@@ -1107,8 +1070,8 @@
     <row r="14" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="29"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="19"/>
       <c r="G14" s="7"/>
       <c r="J14" s="7"/>
@@ -1146,584 +1109,584 @@
     <row r="15" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="29"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="19"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="29"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="19"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="29"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="19"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="29"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="19"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="29"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="19"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="29"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="19"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="29"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="19"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="29"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="19"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="29"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="19"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="29"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="19"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="29"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="19"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="29"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="19"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="29"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="19"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="29"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="19"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="29"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="19"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="29"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="19"/>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="29"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="19"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="29"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="19"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="29"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="19"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="29"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="19"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="29"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="19"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="29"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="19"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="18"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="29"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="19"/>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="18"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="29"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="19"/>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="18"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="29"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="19"/>
       <c r="G39" s="7"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="18"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="29"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="19"/>
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="18"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="29"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="19"/>
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="18"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="29"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="19"/>
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="18"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="29"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="19"/>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="18"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="29"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="19"/>
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="18"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="29"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="19"/>
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="18"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="29"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="28"/>
       <c r="F46" s="19"/>
       <c r="G46" s="7"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="18"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="29"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="19"/>
       <c r="G47" s="7"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="29"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="19"/>
       <c r="G48" s="7"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="29"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="28"/>
       <c r="F49" s="19"/>
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="29"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="19"/>
       <c r="G50" s="7"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="18"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="29"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="28"/>
       <c r="F51" s="19"/>
       <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="18"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="29"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="28"/>
       <c r="F52" s="19"/>
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="18"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="29"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="28"/>
       <c r="F53" s="19"/>
       <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="18"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="29"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="28"/>
       <c r="F54" s="19"/>
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="18"/>
       <c r="C55" s="7"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="29"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="28"/>
       <c r="F55" s="19"/>
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="18"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="29"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="28"/>
       <c r="F56" s="19"/>
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="18"/>
       <c r="C57" s="7"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="29"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="28"/>
       <c r="F57" s="19"/>
       <c r="G57" s="7"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="18"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="29"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="28"/>
       <c r="F58" s="19"/>
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="18"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="29"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="28"/>
       <c r="F59" s="19"/>
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="18"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="29"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="28"/>
       <c r="F60" s="19"/>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="18"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="29"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="28"/>
       <c r="F61" s="19"/>
       <c r="G61" s="7"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="18"/>
       <c r="C62" s="7"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="29"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="28"/>
       <c r="F62" s="19"/>
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="18"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="29"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="28"/>
       <c r="F63" s="19"/>
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="18"/>
       <c r="C64" s="7"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="29"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="28"/>
       <c r="F64" s="19"/>
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="18"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="29"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="28"/>
       <c r="F65" s="19"/>
       <c r="G65" s="7"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="18"/>
       <c r="C66" s="7"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="29"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="28"/>
       <c r="F66" s="19"/>
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="18"/>
       <c r="C67" s="7"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="29"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="28"/>
       <c r="F67" s="19"/>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="18"/>
       <c r="C68" s="7"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="29"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="28"/>
       <c r="F68" s="19"/>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="18"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="28"/>
       <c r="F69" s="19"/>
       <c r="G69" s="7"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="18"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="29"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="28"/>
       <c r="F70" s="19"/>
       <c r="G70" s="7"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="18"/>
       <c r="C71" s="7"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="29"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="28"/>
       <c r="F71" s="19"/>
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="18"/>
       <c r="C72" s="7"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="28"/>
       <c r="F72" s="19"/>
       <c r="G72" s="7"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="18"/>
       <c r="C73" s="7"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="29"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="28"/>
       <c r="F73" s="19"/>
       <c r="G73" s="7"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="18"/>
       <c r="C74" s="7"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="29"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="28"/>
       <c r="F74" s="19"/>
       <c r="G74" s="7"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="18"/>
       <c r="C75" s="7"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="29"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="28"/>
       <c r="F75" s="19"/>
       <c r="G75" s="7"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="18"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="29"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="28"/>
       <c r="F76" s="19"/>
       <c r="G76" s="7"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="18"/>
       <c r="C77" s="7"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="29"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="28"/>
       <c r="F77" s="19"/>
       <c r="G77" s="7"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="18"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="29"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="28"/>
       <c r="F78" s="19"/>
       <c r="G78" s="7"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="18"/>
       <c r="C79" s="7"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="29"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="28"/>
       <c r="F79" s="19"/>
       <c r="G79" s="7"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="18"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="29"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="28"/>
       <c r="F80" s="19"/>
       <c r="G80" s="7"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="18"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="29"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="28"/>
       <c r="F81" s="19"/>
       <c r="G81" s="7"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="18"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="29"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="28"/>
       <c r="F82" s="19"/>
       <c r="G82" s="7"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="18"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="29"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="28"/>
       <c r="F83" s="19"/>
       <c r="G83" s="7"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="18"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="29"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="28"/>
       <c r="F84" s="19"/>
       <c r="G84" s="7"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="18"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="29"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="28"/>
       <c r="F85" s="19"/>
       <c r="G85" s="7"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="18"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="29"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="28"/>
       <c r="F86" s="19"/>
       <c r="G86" s="7"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="18"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="29"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="28"/>
       <c r="F87" s="19"/>
       <c r="G87" s="7"/>
     </row>
